--- a/Files/college_info/all_colleges/JNTM/JNTM_placements.xlsx
+++ b/Files/college_info/all_colleges/JNTM/JNTM_placements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\github\python_project-dataset\Files\college_info\all_colleges\JNTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC8D6CB-99B8-43E1-9788-A9D1E91ABB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4360B60-E057-4D6E-BCA2-A9E5AA84D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -27,28 +27,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NAME OF THE COMPANY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PACKAGE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -121,22 +99,23 @@
   <si>
     <t>Sl.NO</t>
   </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -200,35 +179,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +550,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,30 +561,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -613,13 +592,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
         <v>6.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -627,13 +606,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <v>5.3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -641,13 +620,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
     </row>
@@ -655,13 +634,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
         <v>3.6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
     </row>
@@ -669,13 +648,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>3.6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -683,13 +662,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>3.5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
     </row>
@@ -697,13 +676,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
         <v>3.36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>6</v>
       </c>
     </row>
@@ -711,13 +690,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
         <v>3.2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -725,13 +704,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Files/college_info/all_colleges/JNTM/JNTM_placements.xlsx
+++ b/Files/college_info/all_colleges/JNTM/JNTM_placements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\github\python_project-dataset\Files\college_info\all_colleges\JNTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4360B60-E057-4D6E-BCA2-A9E5AA84D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DAB534-083B-42EA-9F2B-5E8ECC6BE3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -41,8 +41,76 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>COGNIZANT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MTX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>INFOSYS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TA DIGITAL</t>
+    </r>
+  </si>
+  <si>
+    <t>BYJUS</t>
+  </si>
+  <si>
+    <t>SR INNOVATION EXCHANGE</t>
+  </si>
+  <si>
+    <t>CENT HUB</t>
+  </si>
+  <si>
+    <t>OFFERS</t>
+  </si>
+  <si>
+    <t>Sl.NO</t>
+  </si>
+  <si>
+    <t>SALARY</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>WIPRO</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>_3.5</t>
+    </r>
   </si>
   <si>
     <r>
@@ -51,59 +119,15 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>COGNIZANT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MTX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>INFOSYS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TA DIGITAL</t>
-    </r>
-  </si>
-  <si>
-    <t>BYJUS</t>
-  </si>
-  <si>
-    <t>SR INNOVATION EXCHANGE</t>
-  </si>
-  <si>
-    <t>CENT HUB</t>
-  </si>
-  <si>
-    <t>OFFERS</t>
-  </si>
-  <si>
-    <t>Sl.NO</t>
-  </si>
-  <si>
-    <t>SALARY</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
+      <t>WIPRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>_3.6</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -550,7 +574,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,16 +586,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -579,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -593,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>6.5</v>
@@ -607,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
         <v>5.3</v>
@@ -621,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -635,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>3.6</v>
@@ -648,8 +672,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>3.6</v>
@@ -662,8 +686,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>3.5</v>
@@ -691,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>3.2</v>
@@ -705,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
